--- a/lineage/data/heiser_data/new_version/AU00601_D3_2_V4.xlsx
+++ b/lineage/data/heiser_data/new_version/AU00601_D3_2_V4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukakarginov/lineage-growth/lineage/data/heiser_data/new_version/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC36B068-BFBE-E445-8464-D5A13D654F54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D94474-533E-3E4A-AC3C-66205CE5E3AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -536,7 +536,7 @@
   <dimension ref="A1:V451"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A413" zoomScale="139" workbookViewId="0">
-      <selection activeCell="G439" sqref="G439"/>
+      <selection activeCell="G438" sqref="G438"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="10" customHeight="1" x14ac:dyDescent="0.2"/>
